--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1426.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1426.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.758491975749558</v>
+        <v>0.6442526578903198</v>
       </c>
       <c r="B1">
-        <v>2.029671736173952</v>
+        <v>2.268299341201782</v>
       </c>
       <c r="C1">
-        <v>2.089051753823677</v>
+        <v>6.268117904663086</v>
       </c>
       <c r="D1">
-        <v>2.639968427504887</v>
+        <v>1.7615567445755</v>
       </c>
       <c r="E1">
-        <v>2.966751452596367</v>
+        <v>1.04323410987854</v>
       </c>
     </row>
   </sheetData>
